--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H2">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8299853333333332</v>
+        <v>1.306600666666667</v>
       </c>
       <c r="N2">
-        <v>2.489956</v>
+        <v>3.919802</v>
       </c>
       <c r="O2">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="P2">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="Q2">
-        <v>0.05920036387066666</v>
+        <v>0.02656972455666666</v>
       </c>
       <c r="R2">
-        <v>0.532803274836</v>
+        <v>0.23912752101</v>
       </c>
       <c r="S2">
-        <v>0.02467368687373285</v>
+        <v>0.00797830196960881</v>
       </c>
       <c r="T2">
-        <v>0.02467368687373285</v>
+        <v>0.007978301969608808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H3">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I3">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J3">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.033067</v>
       </c>
       <c r="O3">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="P3">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="Q3">
-        <v>0.0007861899696666667</v>
+        <v>0.0002241391483333333</v>
       </c>
       <c r="R3">
-        <v>0.007075709727</v>
+        <v>0.002017252335</v>
       </c>
       <c r="S3">
-        <v>0.0003276703700200824</v>
+        <v>6.730404016046079E-05</v>
       </c>
       <c r="T3">
-        <v>0.0003276703700200824</v>
+        <v>6.730404016046078E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H4">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I4">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J4">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2881033333333334</v>
+        <v>0.2881033333333333</v>
       </c>
       <c r="N4">
-        <v>0.8643100000000001</v>
+        <v>0.86431</v>
       </c>
       <c r="O4">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="P4">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="Q4">
-        <v>0.02054954645666667</v>
+        <v>0.005858581283333333</v>
       </c>
       <c r="R4">
-        <v>0.18494591811</v>
+        <v>0.05272723155</v>
       </c>
       <c r="S4">
-        <v>0.008564695240331975</v>
+        <v>0.001759202677929291</v>
       </c>
       <c r="T4">
-        <v>0.008564695240331975</v>
+        <v>0.001759202677929291</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I5">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J5">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8299853333333332</v>
+        <v>1.306600666666667</v>
       </c>
       <c r="N5">
-        <v>2.489956</v>
+        <v>3.919802</v>
       </c>
       <c r="O5">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="P5">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="Q5">
-        <v>0.255820569396</v>
+        <v>0.402724377282</v>
       </c>
       <c r="R5">
-        <v>2.302385124564</v>
+        <v>3.624519395538</v>
       </c>
       <c r="S5">
-        <v>0.1066215849437459</v>
+        <v>0.1209292435691535</v>
       </c>
       <c r="T5">
-        <v>0.1066215849437459</v>
+        <v>0.1209292435691535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I6">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J6">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.033067</v>
       </c>
       <c r="O6">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="P6">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="Q6">
         <v>0.003397336647</v>
@@ -818,10 +818,10 @@
         <v>0.030576029823</v>
       </c>
       <c r="S6">
-        <v>0.001415951104892956</v>
+        <v>0.001020145225983659</v>
       </c>
       <c r="T6">
-        <v>0.001415951104892956</v>
+        <v>0.001020145225983659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I7">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J7">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2881033333333334</v>
+        <v>0.2881033333333333</v>
       </c>
       <c r="N7">
-        <v>0.8643100000000001</v>
+        <v>0.86431</v>
       </c>
       <c r="O7">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="P7">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="Q7">
-        <v>0.08880007371000002</v>
+        <v>0.08880007371000001</v>
       </c>
       <c r="R7">
-        <v>0.7992006633900002</v>
+        <v>0.7992006633900001</v>
       </c>
       <c r="S7">
-        <v>0.0370103335491587</v>
+        <v>0.02666470258172608</v>
       </c>
       <c r="T7">
-        <v>0.0370103335491587</v>
+        <v>0.02666470258172608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H8">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I8">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J8">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8299853333333332</v>
+        <v>1.306600666666667</v>
       </c>
       <c r="N8">
-        <v>2.489956</v>
+        <v>3.919802</v>
       </c>
       <c r="O8">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="P8">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="Q8">
-        <v>1.448676597109777</v>
+        <v>2.280572597549555</v>
       </c>
       <c r="R8">
-        <v>13.038089373988</v>
+        <v>20.525153377946</v>
       </c>
       <c r="S8">
-        <v>0.6037833283673865</v>
+        <v>0.6848056255931388</v>
       </c>
       <c r="T8">
-        <v>0.6037833283673865</v>
+        <v>0.6848056255931387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H9">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I9">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J9">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.033067</v>
       </c>
       <c r="O9">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="P9">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="Q9">
         <v>0.01923864881011111</v>
@@ -1004,10 +1004,10 @@
         <v>0.173147839291</v>
       </c>
       <c r="S9">
-        <v>0.008018335793533849</v>
+        <v>0.00577694169794503</v>
       </c>
       <c r="T9">
-        <v>0.008018335793533849</v>
+        <v>0.005776941697945029</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H10">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I10">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J10">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2881033333333334</v>
+        <v>0.2881033333333333</v>
       </c>
       <c r="N10">
-        <v>0.8643100000000001</v>
+        <v>0.86431</v>
       </c>
       <c r="O10">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="P10">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="Q10">
         <v>0.5028625685144444</v>
@@ -1066,10 +1066,10 @@
         <v>4.52576311663</v>
       </c>
       <c r="S10">
-        <v>0.2095844137571972</v>
+        <v>0.1509985326443544</v>
       </c>
       <c r="T10">
-        <v>0.2095844137571972</v>
+        <v>0.1509985326443544</v>
       </c>
     </row>
   </sheetData>
